--- a/4-distribuicao-probabilidades/variaveis-discretas/exercicios.xlsx
+++ b/4-distribuicao-probabilidades/variaveis-discretas/exercicios.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/865a58d3a781240e/Mauá/estatistica/4-distribuicao-probabilidades/variaveis-discretas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/865a58d3a781240e/Maua/estatistica/4-distribuicao-probabilidades/variaveis-discretas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{1EBCC964-F441-4221-A004-158E322D96A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FAED8FF-3A41-4C76-9842-7334269250B6}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{1EBCC964-F441-4221-A004-158E322D96A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04352305-4A45-4216-9540-6BBC8345419E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{DBB4978A-0C3D-4BB2-83FD-DB72AC7F8E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{DBB4978A-0C3D-4BB2-83FD-DB72AC7F8E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex 1 e 3" sheetId="1" r:id="rId1"/>
     <sheet name="Ex 2" sheetId="2" r:id="rId2"/>
     <sheet name="Ex 5" sheetId="3" r:id="rId3"/>
     <sheet name="Ex 6" sheetId="4" r:id="rId4"/>
+    <sheet name="Ex 7" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>X</t>
   </si>
@@ -92,6 +93,15 @@
   </si>
   <si>
     <t>Mín 2</t>
+  </si>
+  <si>
+    <t>x = quantidade de moradores com seguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xi </t>
+  </si>
+  <si>
+    <t>Sum P</t>
   </si>
 </sst>
 </file>
@@ -446,7 +456,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,11 +528,11 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C7" si="0">A5*B5</f>
+        <f t="shared" ref="C5:C6" si="0">A5*B5</f>
         <v>-1.5</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D7" si="1">A5^2*B5</f>
+        <f t="shared" ref="D5:D6" si="1">A5^2*B5</f>
         <v>7.5</v>
       </c>
     </row>
@@ -832,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5536496D-26E9-4EB9-8CCA-EA84381C52A9}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -913,4 +923,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D740FDA-4AEE-4C1D-9B5F-3BA36DFCC182}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>0.25*0.25*0.25*0.25</f>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>0.75*0.25*0.25*0.25+0.25*0.75*0.25*0.25+0.25*0.25*0.75*0.25+0.25*0.25*0.25*0.75</f>
+        <v>4.6875E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f>0.75^2*0.25^2*6</f>
+        <v>0.2109375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>0.75^3*0.25*4</f>
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>0.75^4</f>
+        <v>0.31640625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B4:B8)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>